--- a/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/DescriptiveStatisticsHW.xlsx
+++ b/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/DescriptiveStatisticsHW.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\module1hwexams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\Essential Statistics for Data Analysis using Excel\Module1Homework-NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7410" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="investments" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="investments" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>REIT</t>
   </si>
@@ -119,12 +120,63 @@
   <si>
     <t>Problem 4 data</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>reit mean</t>
+  </si>
+  <si>
+    <t>reit mean - 2s</t>
+  </si>
+  <si>
+    <t>reit mean + 2s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +196,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,11 +243,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -197,11 +277,120 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +401,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="F7:I50" totalsRowShown="0">
+  <autoFilter ref="F7:I50"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Year"/>
+    <tableColumn id="2" name="REIT"/>
+    <tableColumn id="3" name="Gold"/>
+    <tableColumn id="4" name="Bonds"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,17 +679,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:P3721"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.12110642476744186</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.11265884306976746</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9">
+        <v>7.6460465116279075E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3.1738245930234034E-2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4.6872493118022537E-2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.5045310354774426E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.15502021799999999</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.4493012000000003E-2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6.2399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.20812159655668785</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.30736349210220137</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9.8658697730477612E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4.331459895330475E-2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9.4472316277260021E-2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9.7335386378737485E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.32702575522692401</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9">
+        <v>8.1132045131708352</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-5.8539244654947975E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-0.80080615562732549</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.2385324584104014</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.30858247451298165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.912053</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.786942416</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.43930000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9">
+        <v>-0.42231600000000002</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9">
+        <v>-0.326013514</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.48973699999999998</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.460928902</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.3281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5.2075762650000001</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9">
+        <v>4.8443302520000007</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3.2878000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3721"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(Table1[REIT])</f>
+        <v>0.12110642476744186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <f>H1-2*Sheet2!B7</f>
+        <v>-0.29513676834593383</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="13">
+        <f>H1+2*Sheet2!B7</f>
+        <v>0.53734961788081759</v>
+      </c>
+    </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
@@ -30959,12 +31491,29 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G8:G50">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>$H$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>$H$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
